--- a/dataloader/src/test/resources/TestDriver/TestSBO/Test.xlsx
+++ b/dataloader/src/test/resources/TestDriver/TestSBO/Test.xlsx
@@ -5,10 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Test" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="O_InstrumentAttribute" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="O_TransactionActivity" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="O_AttributeBalance" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="O_InstrumentBalance" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="O_MetricBalance" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="81">
   <si>
     <t xml:space="preserve">Steps</t>
   </si>
@@ -58,6 +63,9 @@
     <t xml:space="preserve">CONFIGURATION</t>
   </si>
   <si>
+    <t xml:space="preserve">INSTRUMENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">MODEL_EXECUTION</t>
   </si>
   <si>
@@ -74,6 +82,192 @@
   </si>
   <si>
     <t xml:space="preserve">TestSBO/ActivityData_D5.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstrumentAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"instrumentId": "IDHJ-EGNY"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectiveDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instrumentId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributeId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">periodId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">previousVersionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.LOAN_TERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.STATUS_AS_OF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.INTEREST_RECEIVABLE_CONSUMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.MATURITY_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.MERCHANT_INDUSTRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.ACCRUAL_METHOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.LOAN_AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.PRINCIPAL_BALANCE_CONSUMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.CAPTURE_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.NEXT_PAYMENT_DUE_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.INTEREST_RATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.LOAN_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.LAST_PAYMENT_MADE_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-31T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDHJ-EGNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-30T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-30T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPORTING GOODS AND OUTDOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUAL_360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-27T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-30T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransactionActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postingDate ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectiveDate ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transactionName ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURCHASE - UPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURCHASE INTEREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICING INTEREST ACCRUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT - INTEREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT - UPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMIT REVERSAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttributeLevelLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributeId ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metricName ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accountingPeriodId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance.beginningBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance.activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance.endingBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCRUED INTEREST RECEIVABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNPAID PRINCIPAL BALANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstrumentLevelLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetricLevelLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{}</t>
   </si>
 </sst>
 </file>
@@ -84,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,6 +299,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,12 +350,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,209 +496,212 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>44593</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>44594</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="2" t="n">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>44595</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>44596</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>44597</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>44598</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>44599</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>44600</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="n">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>44601</v>
       </c>
     </row>
@@ -498,4 +714,3165 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="43.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="23.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="41.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="37.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="11.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>20220131</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="27.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="26.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="0"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="0"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>-183.3334</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>-16.6666</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>-55.5462</v>
+      </c>
+      <c r="H12" s="0"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>-219.4538</v>
+      </c>
+      <c r="H13" s="0"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="H14" s="0"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="H15" s="0"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>-27.7122</v>
+      </c>
+      <c r="H16" s="0"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>-322.2878</v>
+      </c>
+      <c r="H17" s="0"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="H18" s="0"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>27.7122</v>
+      </c>
+      <c r="H19" s="0"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <f aca="false">D19</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="H20" s="0"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <f aca="false">D20</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <f aca="false">D21</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>183.3334</v>
+      </c>
+      <c r="H22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <f aca="false">D22</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>16.6666</v>
+      </c>
+      <c r="H23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <f aca="false">D23</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>-200</v>
+      </c>
+      <c r="H24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <f aca="false">D24</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <f aca="false">D25</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="H26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <f aca="false">D26</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>-27.7778</v>
+      </c>
+      <c r="H27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <f aca="false">D27</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>-27.7731</v>
+      </c>
+      <c r="H28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <f aca="false">D28</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>-238.889</v>
+      </c>
+      <c r="H29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <f aca="false">D29</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>55.5462</v>
+      </c>
+      <c r="H30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <f aca="false">D30</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>-36.111</v>
+      </c>
+      <c r="H31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <f aca="false">D31</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>219.4538</v>
+      </c>
+      <c r="H32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <f aca="false">D32</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="H33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <f aca="false">D33</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>-275</v>
+      </c>
+      <c r="H34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <f aca="false">D34</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>55.5556</v>
+      </c>
+      <c r="H35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <f aca="false">D35</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>-27.7731</v>
+      </c>
+      <c r="H36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <f aca="false">D36</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>-27.7677</v>
+      </c>
+      <c r="H37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <f aca="false">D37</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>27.7122</v>
+      </c>
+      <c r="H38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <f aca="false">D38</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>-322.2323</v>
+      </c>
+      <c r="H39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <f aca="false">D39</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>322.2878</v>
+      </c>
+      <c r="H40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <f aca="false">D40</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="H41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <f aca="false">D41</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>-350</v>
+      </c>
+      <c r="H42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <f aca="false">D42</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>27.7677</v>
+      </c>
+      <c r="H43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <f aca="false">D43</f>
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>-27.7122</v>
+      </c>
+      <c r="H44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <f aca="false">D44</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>-27.6227</v>
+      </c>
+      <c r="H45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <f aca="false">D45</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>-27.6227</v>
+      </c>
+      <c r="H46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <f aca="false">D46</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>-83.0346</v>
+      </c>
+      <c r="H47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <f aca="false">D47</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>-16.9654</v>
+      </c>
+      <c r="H48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <f aca="false">D48</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <f aca="false">D49</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>83.0346</v>
+      </c>
+      <c r="H50" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>202201</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>202201</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>127.7778</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>127.7778</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>155.5556</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>155.5556</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>-155.5556</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>-16.6666</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>-27.7731</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>-219.4538</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>99763.8796</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>99763.8796</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>-322.2878</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>55.2454</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>55.2454</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>-55.2454</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>183.0995</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>99624.6913</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.92"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>202201</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>202201</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>127.7778</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>127.7778</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>127.7778</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>155.5556</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>155.5556</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>155.5556</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>-155.5556</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>-16.6666</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>-27.7731</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>-219.4538</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>99763.8796</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>99763.8796</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>99763.8796</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>-322.2878</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>55.2454</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>55.2454</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>55.2454</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>-55.2454</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>183.0995</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>99624.6913</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>99624.6913</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="33.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>202201</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>202201</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>127.7778</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>127.7778</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>127.7778</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>27.7778</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>155.5556</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>155.5556</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>155.5556</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>-155.5556</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-16.6666</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>27.7731</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>-27.7731</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>99983.3334</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>-219.4538</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>99763.8796</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>99763.8796</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>99763.8796</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>-322.2878</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>20220207</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>27.6227</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>55.2454</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>55.2454</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20220208</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>55.2454</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>-55.2454</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20220209</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>99441.5918</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>183.0995</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>99624.6913</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>99624.6913</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>